--- a/MainTop/02.09.2024/печать_имена.xlsx
+++ b/MainTop/02.09.2024/печать_имена.xlsx
@@ -422,8 +422,8 @@
   </sheetPr>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K85" activeCellId="0" sqref="K85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L82" activeCellId="0" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -493,6 +493,10 @@
       <c r="J2" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">J2/2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -526,6 +530,10 @@
       <c r="J3" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">J3/2</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -559,6 +567,10 @@
       <c r="J4" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">J4/2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -592,6 +604,10 @@
       <c r="J5" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">J5/2</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -625,6 +641,10 @@
       <c r="J6" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">J6/2</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -658,6 +678,10 @@
       <c r="J7" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">J7/2</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -691,6 +715,10 @@
       <c r="J8" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">J8/2</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -724,6 +752,10 @@
       <c r="J9" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">J9/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -757,6 +789,10 @@
       <c r="J10" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">J10/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -790,6 +826,10 @@
       <c r="J11" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">J11/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -823,6 +863,10 @@
       <c r="J12" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">J12/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -856,6 +900,10 @@
       <c r="J13" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">J13/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -889,6 +937,10 @@
       <c r="J14" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">J14/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -922,6 +974,10 @@
       <c r="J15" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">J15/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -955,6 +1011,10 @@
       <c r="J16" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">J16/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -988,6 +1048,10 @@
       <c r="J17" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">J17/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -1021,6 +1085,10 @@
       <c r="J18" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">J18/2</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -1054,6 +1122,10 @@
       <c r="J19" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">J19/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -1087,6 +1159,10 @@
       <c r="J20" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">J20/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -1120,6 +1196,10 @@
       <c r="J21" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">J21/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -1153,6 +1233,10 @@
       <c r="J22" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">J22/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -1186,6 +1270,10 @@
       <c r="J23" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K23" s="0" t="n">
+        <f aca="false">J23/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -1219,6 +1307,10 @@
       <c r="J24" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K24" s="0" t="n">
+        <f aca="false">J24/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -1252,6 +1344,10 @@
       <c r="J25" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K25" s="0" t="n">
+        <f aca="false">J25/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -1285,6 +1381,10 @@
       <c r="J26" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K26" s="0" t="n">
+        <f aca="false">J26/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -1318,6 +1418,10 @@
       <c r="J27" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K27" s="0" t="n">
+        <f aca="false">J27/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -1351,6 +1455,10 @@
       <c r="J28" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K28" s="0" t="n">
+        <f aca="false">J28/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -1384,6 +1492,10 @@
       <c r="J29" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">J29/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -1417,6 +1529,10 @@
       <c r="J30" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">J30/2</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -1450,6 +1566,10 @@
       <c r="J31" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K31" s="0" t="n">
+        <f aca="false">J31/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -1483,6 +1603,10 @@
       <c r="J32" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K32" s="0" t="n">
+        <f aca="false">J32/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -1516,6 +1640,10 @@
       <c r="J33" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K33" s="0" t="n">
+        <f aca="false">J33/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -1549,6 +1677,10 @@
       <c r="J34" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K34" s="0" t="n">
+        <f aca="false">J34/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1582,6 +1714,10 @@
       <c r="J35" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K35" s="0" t="n">
+        <f aca="false">J35/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -1615,6 +1751,10 @@
       <c r="J36" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K36" s="0" t="n">
+        <f aca="false">J36/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -1648,6 +1788,10 @@
       <c r="J37" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K37" s="0" t="n">
+        <f aca="false">J37/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -1681,6 +1825,10 @@
       <c r="J38" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K38" s="0" t="n">
+        <f aca="false">J38/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -1714,6 +1862,10 @@
       <c r="J39" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">J39/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -1747,6 +1899,10 @@
       <c r="J40" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">J40/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -1780,6 +1936,10 @@
       <c r="J41" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K41" s="0" t="n">
+        <f aca="false">J41/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -1813,6 +1973,10 @@
       <c r="J42" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K42" s="0" t="n">
+        <f aca="false">J42/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -1846,6 +2010,10 @@
       <c r="J43" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">J43/2</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -1879,6 +2047,10 @@
       <c r="J44" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">J44/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -1912,6 +2084,10 @@
       <c r="J45" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">J45/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -1945,6 +2121,10 @@
       <c r="J46" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K46" s="0" t="n">
+        <f aca="false">J46/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -1978,6 +2158,10 @@
       <c r="J47" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="K47" s="0" t="n">
+        <f aca="false">J47/2</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -2011,6 +2195,10 @@
       <c r="J48" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">J48/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -2044,6 +2232,10 @@
       <c r="J49" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">J49/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -2077,6 +2269,10 @@
       <c r="J50" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">J50/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -2110,6 +2306,10 @@
       <c r="J51" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K51" s="0" t="n">
+        <f aca="false">J51/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -2143,6 +2343,10 @@
       <c r="J52" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K52" s="0" t="n">
+        <f aca="false">J52/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -2176,6 +2380,10 @@
       <c r="J53" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="K53" s="0" t="n">
+        <f aca="false">J53/2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -2209,6 +2417,9 @@
       <c r="J54" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K54" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -2242,6 +2453,9 @@
       <c r="J55" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K55" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -2275,6 +2489,9 @@
       <c r="J56" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K56" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -2308,6 +2525,9 @@
       <c r="J57" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K57" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -2341,6 +2561,9 @@
       <c r="J58" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -2374,6 +2597,9 @@
       <c r="J59" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -2407,6 +2633,9 @@
       <c r="J60" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -2440,6 +2669,9 @@
       <c r="J61" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -2473,6 +2705,9 @@
       <c r="J62" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K62" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -2506,6 +2741,9 @@
       <c r="J63" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K63" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -2539,6 +2777,9 @@
       <c r="J64" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K64" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -2570,7 +2811,10 @@
         <v>9</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,7 +2847,10 @@
         <v>9</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,6 +2885,9 @@
       <c r="J67" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K67" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -2671,6 +2921,9 @@
       <c r="J68" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K68" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -2704,6 +2957,9 @@
       <c r="J69" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K69" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -2737,6 +2993,9 @@
       <c r="J70" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -2770,6 +3029,9 @@
       <c r="J71" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -2803,6 +3065,9 @@
       <c r="J72" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K72" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -2836,6 +3101,9 @@
       <c r="J73" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K73" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -2867,7 +3135,10 @@
         <v>9</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,7 +3171,10 @@
         <v>9</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,7 +3207,10 @@
         <v>9</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,7 +3243,10 @@
         <v>9</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2999,7 +3279,10 @@
         <v>9</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3032,7 +3315,10 @@
         <v>9</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3067,6 +3353,9 @@
       <c r="J80" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K80" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -3098,7 +3387,10 @@
         <v>9</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,6 +3425,9 @@
       <c r="J82" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K82" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -3166,6 +3461,9 @@
       <c r="J83" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K83" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -3199,6 +3497,9 @@
       <c r="J84" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="K84" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -3232,6 +3533,9 @@
       <c r="J85" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="K85" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -3263,6 +3567,9 @@
         <v>9</v>
       </c>
       <c r="J86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3273,11 +3580,11 @@
       </c>
       <c r="J87" s="0" t="n">
         <f aca="false">SUM(J2:J86)</f>
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="K87" s="0" t="n">
-        <f aca="false">J87/2</f>
-        <v>224</v>
+        <f aca="false">SUM(K2:K86)</f>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/MainTop/02.09.2024/печать_имена.xlsx
+++ b/MainTop/02.09.2024/печать_имена.xlsx
@@ -320,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -345,8 +345,97 @@
       <family val="0"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,12 +444,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -368,8 +499,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,25 +539,153 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -422,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L82" activeCellId="0" sqref="L82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A86" activeCellId="0" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -457,7 +731,7 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
